--- a/TimeCount.xlsx
+++ b/TimeCount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitryshcherba/SWIFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64625442-410B-D948-90A3-26634AD7BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9CEBF-EB37-BF4D-BC0B-E2865B4C5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="3740" windowWidth="28800" windowHeight="16300" xr2:uid="{D8C6B7E2-9AF5-614E-9123-D4C0B030BA7B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>Учет времени на обучение</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>avg / day</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83232B19-B0FD-744D-8356-FFDF739C56EC}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -500,6 +503,9 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -518,12 +524,23 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f>SUM(D3:D13)</f>
-        <v>35</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
